--- a/rhla_analysis/rhla1_6_uniform_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k1.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001945981542799917</v>
+        <v>0.002033943313001961</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06425132022037706</v>
+        <v>0.06414257000195998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1483375959079284</v>
+        <v>0.09538357094365241</v>
       </c>
       <c r="D2" t="n">
-        <v>33.01743557543254</v>
+        <v>31.53606572608455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.013559161784189</v>
+        <v>0.01365688108926171</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06879313656271871</v>
+        <v>0.0689126587065097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1453537936913896</v>
+        <v>0.09809911744738628</v>
       </c>
       <c r="D3" t="n">
-        <v>5.073553782870022</v>
+        <v>5.04600268949366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.005660230981543872</v>
+        <v>0.005601379988597415</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05529655896882955</v>
+        <v>0.05507022490795119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1342710997442455</v>
+        <v>0.08520027155465038</v>
       </c>
       <c r="D4" t="n">
-        <v>9.769311384841576</v>
+        <v>9.831545979750747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01044969410862395</v>
+        <v>0.01055330652322711</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06720155301102175</v>
+        <v>0.06740208650418163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1317135549872123</v>
+        <v>0.08112695179904957</v>
       </c>
       <c r="D5" t="n">
-        <v>6.430958869462167</v>
+        <v>6.386821642660927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0122947416983658</v>
+        <v>0.01226409678378781</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05078691945455696</v>
+        <v>0.05026400127007311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1125319693094629</v>
+        <v>0.06924643584521385</v>
       </c>
       <c r="D6" t="n">
-        <v>4.130783769235874</v>
+        <v>4.098467433534791</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004869554980037005</v>
+        <v>0.005081905131437078</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0616461286472078</v>
+        <v>0.06153235310729708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118925831202046</v>
+        <v>0.07162253903598099</v>
       </c>
       <c r="D7" t="n">
-        <v>12.65949946143525</v>
+        <v>12.1081270735758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.008613498467867509</v>
+        <v>0.008759361230391607</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0407051214378818</v>
+        <v>0.0407614269318723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.154305200341006</v>
+        <v>0.09572301425661914</v>
       </c>
       <c r="D8" t="n">
-        <v>4.725736190669967</v>
+        <v>4.65347025425163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009974567887888095</v>
+        <v>0.009807873192026997</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05308635435987047</v>
+        <v>0.05275395038105812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1389599317988065</v>
+        <v>0.09198913781398506</v>
       </c>
       <c r="D9" t="n">
-        <v>5.322170840536571</v>
+        <v>5.378734955906934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00570130280081024</v>
+        <v>0.005738327940000057</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06646437282251619</v>
+        <v>0.06673179056619931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1329923273657289</v>
+        <v>0.08486082824168364</v>
       </c>
       <c r="D10" t="n">
-        <v>11.65775177088833</v>
+        <v>11.62913504838809</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003464493763297226</v>
+        <v>0.003223160364710956</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06743991976890133</v>
+        <v>0.06744590442442698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1138107416879795</v>
+        <v>0.07162253903598099</v>
       </c>
       <c r="D11" t="n">
-        <v>19.46602429577401</v>
+        <v>20.92539519996094</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k1.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002033943313001961</v>
+        <v>0.002033943313001968</v>
       </c>
       <c r="B2" t="n">
         <v>0.06414257000195998</v>
@@ -466,40 +466,40 @@
         <v>0.09538357094365241</v>
       </c>
       <c r="D2" t="n">
-        <v>31.53606572608455</v>
+        <v>31.53606572608444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01365688108926171</v>
+        <v>0.01365688108926169</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0689126587065097</v>
+        <v>0.06891265870650973</v>
       </c>
       <c r="C3" t="n">
         <v>0.09809911744738628</v>
       </c>
       <c r="D3" t="n">
-        <v>5.04600268949366</v>
+        <v>5.046002689493672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.005601379988597415</v>
+        <v>0.005601379988597418</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05507022490795119</v>
+        <v>0.0550702249079512</v>
       </c>
       <c r="C4" t="n">
         <v>0.08520027155465038</v>
       </c>
       <c r="D4" t="n">
-        <v>9.831545979750747</v>
+        <v>9.831545979750741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01055330652322711</v>
+        <v>0.01055330652322696</v>
       </c>
       <c r="B5" t="n">
         <v>0.06740208650418163</v>
@@ -508,68 +508,68 @@
         <v>0.08112695179904957</v>
       </c>
       <c r="D5" t="n">
-        <v>6.386821642660927</v>
+        <v>6.386821642661014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01226409678378781</v>
+        <v>0.01226409678378779</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05026400127007311</v>
+        <v>0.05026400127007309</v>
       </c>
       <c r="C6" t="n">
         <v>0.06924643584521385</v>
       </c>
       <c r="D6" t="n">
-        <v>4.098467433534791</v>
+        <v>4.098467433534796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005081905131437078</v>
+        <v>0.005081905131437085</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06153235310729708</v>
+        <v>0.06153235310729709</v>
       </c>
       <c r="C7" t="n">
         <v>0.07162253903598099</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1081270735758</v>
+        <v>12.10812707357579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.008759361230391607</v>
+        <v>0.008759361230391609</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0407614269318723</v>
+        <v>0.04076142693187232</v>
       </c>
       <c r="C8" t="n">
         <v>0.09572301425661914</v>
       </c>
       <c r="D8" t="n">
-        <v>4.65347025425163</v>
+        <v>4.653470254251631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009807873192026997</v>
+        <v>0.009807873192026948</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05275395038105812</v>
+        <v>0.05275395038105815</v>
       </c>
       <c r="C9" t="n">
         <v>0.09198913781398506</v>
       </c>
       <c r="D9" t="n">
-        <v>5.378734955906934</v>
+        <v>5.378734955906963</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005738327940000057</v>
+        <v>0.005738327940000098</v>
       </c>
       <c r="B10" t="n">
         <v>0.06673179056619931</v>
@@ -578,12 +578,12 @@
         <v>0.08486082824168364</v>
       </c>
       <c r="D10" t="n">
-        <v>11.62913504838809</v>
+        <v>11.62913504838801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003223160364710956</v>
+        <v>0.003223160364710954</v>
       </c>
       <c r="B11" t="n">
         <v>0.06744590442442698</v>
@@ -592,7 +592,7 @@
         <v>0.07162253903598099</v>
       </c>
       <c r="D11" t="n">
-        <v>20.92539519996094</v>
+        <v>20.92539519996095</v>
       </c>
     </row>
   </sheetData>
